--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$B$1:$D$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$B$1:$D$57</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="277">
   <si>
     <t>Bereich</t>
   </si>
@@ -624,15 +624,6 @@
     <t>Jahr 2013</t>
   </si>
   <si>
-    <t>Abbau GN14</t>
-  </si>
-  <si>
-    <t>Aufbau GN14</t>
-  </si>
-  <si>
-    <t>GN14</t>
-  </si>
-  <si>
     <t>Bianca Koczirz</t>
   </si>
   <si>
@@ -832,13 +823,43 @@
   </si>
   <si>
     <t>Sonntag, 12.Juli.2015 ab 09:00 Uhr, 20 Personen</t>
+  </si>
+  <si>
+    <t>GN15</t>
+  </si>
+  <si>
+    <t>Jahr 2014</t>
+  </si>
+  <si>
+    <t>Leopold Pühringer (EIceBAR)</t>
+  </si>
+  <si>
+    <t>Staudinger (FF Langenstein)</t>
+  </si>
+  <si>
+    <t>Isabella Peterseil</t>
+  </si>
+  <si>
+    <t>(bzw. 6x)</t>
+  </si>
+  <si>
+    <t>Gerstenich KG (6x) ab 22:00</t>
+  </si>
+  <si>
+    <t>Aufbau GN15</t>
+  </si>
+  <si>
+    <t>Abbau GN15</t>
+  </si>
+  <si>
+    <t>Christopher Gagstädter (Verantwortlicher)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,14 +940,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -936,7 +949,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1272,11 +1285,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1348,8 +1372,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1360,14 +1386,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1405,9 +1434,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1442,7 +1471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1477,7 +1506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1651,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,55 +1693,61 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="6" width="8.140625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="7" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="25">
-        <v>41825</v>
+        <v>42196</v>
       </c>
       <c r="E1" s="37"/>
       <c r="G1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="55" t="s">
         <v>90</v>
@@ -1721,128 +1756,141 @@
         <v>5</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="55"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="56" t="s">
-        <v>19</v>
-      </c>
+      <c r="D4" s="56"/>
       <c r="F4" s="38"/>
       <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="55"/>
       <c r="C5" s="50"/>
-      <c r="D5" s="57" t="s">
-        <v>225</v>
-      </c>
+      <c r="D5" s="57"/>
       <c r="E5" s="23"/>
       <c r="F5" s="38"/>
       <c r="G5" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="55"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="57" t="s">
-        <v>211</v>
-      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="23"/>
       <c r="F6" s="38"/>
       <c r="G6" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="55"/>
       <c r="C7" s="50"/>
       <c r="D7" s="57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="38"/>
       <c r="G7" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="55"/>
       <c r="C8" s="50"/>
       <c r="D8" s="56" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="58"/>
       <c r="C9" s="59"/>
-      <c r="D9" s="60" t="s">
-        <v>205</v>
-      </c>
+      <c r="D9" s="60"/>
       <c r="E9" s="23"/>
       <c r="F9" s="38"/>
       <c r="G9" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>89</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>53</v>
       </c>
@@ -1853,89 +1901,96 @@
         <v>105</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="55"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="69" t="s">
-        <v>227</v>
-      </c>
+      <c r="D11" s="56"/>
       <c r="E11" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="55"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="56"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="55"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="57" t="s">
-        <v>206</v>
-      </c>
+      <c r="D13" s="57"/>
       <c r="E13" s="23"/>
       <c r="F13" s="38"/>
       <c r="G13" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="61" t="s">
-        <v>152</v>
-      </c>
+      <c r="D14" s="61"/>
       <c r="F14" s="38"/>
       <c r="G14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>70</v>
       </c>
@@ -1945,256 +2000,272 @@
       <c r="C15" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="54" t="s">
-        <v>15</v>
-      </c>
+      <c r="D15" s="54"/>
       <c r="F15" s="38"/>
       <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="55"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="D16" s="57"/>
       <c r="E16" s="23"/>
       <c r="F16" s="38"/>
       <c r="G16" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="J16" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="55"/>
       <c r="C17" s="50"/>
-      <c r="D17" s="57" t="s">
-        <v>208</v>
-      </c>
+      <c r="D17" s="57"/>
       <c r="E17" s="23"/>
       <c r="F17" s="38"/>
       <c r="G17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>160</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="J17" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="55"/>
       <c r="C18" s="50"/>
-      <c r="D18" s="57" t="s">
-        <v>219</v>
-      </c>
+      <c r="D18" s="57"/>
       <c r="E18" s="23"/>
       <c r="F18" s="38"/>
       <c r="G18" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="J18" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="55"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="57" t="s">
-        <v>166</v>
-      </c>
+      <c r="D19" s="57"/>
       <c r="E19" s="23"/>
       <c r="F19" s="38"/>
       <c r="G19" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="J19" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="55"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="57" t="s">
-        <v>55</v>
-      </c>
+      <c r="D20" s="57"/>
       <c r="E20" s="23"/>
       <c r="F20" s="38"/>
       <c r="G20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="55"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="57" t="s">
-        <v>162</v>
-      </c>
+      <c r="D21" s="57"/>
       <c r="E21" s="23"/>
       <c r="F21" s="38"/>
       <c r="G21" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="55"/>
       <c r="C22" s="50" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="38"/>
       <c r="G22" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="J22" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="55"/>
       <c r="C23" s="50"/>
       <c r="D23" s="57" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="38"/>
       <c r="G23" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="55"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="57" t="s">
-        <v>167</v>
-      </c>
+      <c r="D24" s="57"/>
       <c r="E24" s="23"/>
       <c r="F24" s="38"/>
       <c r="G24" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="I24" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="55"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="62" t="s">
-        <v>168</v>
-      </c>
+      <c r="D25" s="62"/>
       <c r="E25" s="23"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="19"/>
+      <c r="G25" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="23"/>
       <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="61" t="s">
-        <v>231</v>
-      </c>
+      <c r="D26" s="61"/>
       <c r="F26" s="38"/>
       <c r="G26" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27" s="54" t="s">
         <v>104</v>
@@ -2203,533 +2274,604 @@
       <c r="G27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>24</v>
+      <c r="H27" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="61" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="38"/>
-      <c r="G28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
-      <c r="B29" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>191</v>
+      <c r="B29" s="55"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="28"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="56" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="64" t="s">
+      <c r="B31" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="56"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="47"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="64"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B34" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C34" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D34" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="2" t="s">
+      <c r="F34" s="38"/>
+      <c r="G34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="55"/>
       <c r="C35" s="50"/>
-      <c r="D35" s="57" t="s">
-        <v>233</v>
-      </c>
+      <c r="D35" s="57"/>
       <c r="E35" s="23"/>
       <c r="F35" s="38"/>
       <c r="G35" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H35" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="I35" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="55"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="57" t="s">
-        <v>234</v>
-      </c>
+      <c r="C36" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="57"/>
       <c r="E36" s="23"/>
       <c r="F36" s="38"/>
       <c r="G36" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="47"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5" t="s">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7" t="s">
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="47"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="61"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+    <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B40" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C40" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D40" s="54"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="56" t="s">
+    <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="47"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="56"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="4" t="s">
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="56"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="57" t="s">
-        <v>217</v>
-      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="23"/>
       <c r="F43" s="38"/>
       <c r="G43" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H43" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="54"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I44" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="55"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="56" t="s">
-        <v>26</v>
-      </c>
+      <c r="C45" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="57"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="38"/>
-      <c r="G45" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>26</v>
+      <c r="G45" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="61" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="56"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="56"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="I48" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="J48" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B49" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C49" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D49" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="2" t="s">
+      <c r="F49" s="38"/>
+      <c r="G49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="57" t="s">
+    <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="23" t="s">
+      <c r="H50" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="61" t="s">
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="61"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="J51" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
+    <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="66" t="s">
+      <c r="B52" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47" t="s">
+      <c r="D52" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" s="38"/>
+      <c r="G52" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B53" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C53" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D53" s="67"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="I53" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="J53" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+    <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B54" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C54" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D54" s="54"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="6" t="s">
+    <row r="55" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="47"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="61"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="B54" s="65" t="s">
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C56" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="67" t="s">
+      <c r="D56" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="38"/>
-      <c r="G54" s="6" t="s">
+      <c r="F56" s="38"/>
+      <c r="G56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="47" t="s">
+      <c r="I56" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B57" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C57" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="11" t="s">
+      <c r="D57" s="67"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="J57" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2741,10 +2883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,43 +2895,47 @@
     <col min="2" max="2" width="37.42578125" style="40" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="4" customWidth="1"/>
-    <col min="6" max="7" width="43.7109375" customWidth="1"/>
+    <col min="5" max="6" width="43.7109375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="16"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="49"/>
       <c r="D2" s="30"/>
       <c r="E2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>39</v>
@@ -2802,124 +2948,134 @@
         <v>107</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="17"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>30</v>
-      </c>
+      <c r="B4" s="46"/>
       <c r="C4" s="50"/>
       <c r="D4" s="35"/>
       <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" s="46"/>
       <c r="C5" s="50"/>
       <c r="D5" s="35"/>
       <c r="E5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>159</v>
-      </c>
+      <c r="B6" s="46"/>
       <c r="C6" s="50"/>
       <c r="D6" s="35"/>
       <c r="E6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="46" t="s">
-        <v>28</v>
-      </c>
+      <c r="B7" s="46"/>
       <c r="C7" s="50"/>
       <c r="D7" s="35"/>
       <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="46" t="s">
-        <v>259</v>
-      </c>
+      <c r="B8" s="46"/>
       <c r="C8" s="51"/>
       <c r="D8" s="35"/>
       <c r="E8" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
       <c r="C9" s="47"/>
       <c r="E9"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="49"/>
       <c r="D10" s="30"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="32"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>35</v>
       </c>
@@ -2933,244 +3089,263 @@
       <c r="E11" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="27" t="s">
         <v>109</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="18"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>215</v>
-      </c>
+      <c r="B12" s="46"/>
       <c r="C12" s="51"/>
       <c r="E12" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>216</v>
-      </c>
+      <c r="B13" s="46"/>
       <c r="C13" s="51"/>
       <c r="E13" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>162</v>
-      </c>
+      <c r="B14" s="46"/>
       <c r="C14" s="51"/>
       <c r="E14" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
-      <c r="B15" s="46" t="s">
-        <v>250</v>
-      </c>
+      <c r="B15" s="46"/>
       <c r="C15" s="51"/>
       <c r="E15" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
-      <c r="B16" s="46" t="s">
-        <v>228</v>
-      </c>
+      <c r="B16" s="46"/>
       <c r="C16" s="51"/>
       <c r="E16" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
-      <c r="B17" s="46" t="s">
-        <v>153</v>
-      </c>
+      <c r="B17" s="46"/>
       <c r="C17" s="51"/>
       <c r="E17" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="B18" s="46" t="s">
-        <v>23</v>
-      </c>
+      <c r="B18" s="46"/>
       <c r="C18" s="51"/>
       <c r="E18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="5"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
-      <c r="B19" s="46" t="s">
-        <v>159</v>
-      </c>
+      <c r="B19" s="46"/>
       <c r="C19" s="51"/>
       <c r="E19" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="5"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
-      <c r="B20" s="46" t="s">
-        <v>251</v>
-      </c>
+      <c r="B20" s="46"/>
       <c r="C20" s="51"/>
       <c r="E20" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="51"/>
+      <c r="E21" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="5"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="5"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="51"/>
+      <c r="E22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="5"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="5"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="51"/>
+      <c r="E23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="5"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
-      <c r="B24" s="46" t="s">
-        <v>261</v>
-      </c>
+      <c r="B24" s="46"/>
       <c r="C24" s="51"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" s="26"/>
       <c r="G24" s="5"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="5"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
-      <c r="B25" s="46" t="s">
-        <v>262</v>
-      </c>
+      <c r="B25" s="46"/>
       <c r="C25" s="51"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="5"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="47"/>
       <c r="E26"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="49"/>
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="32"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>35</v>
       </c>
@@ -3178,295 +3353,315 @@
         <v>154</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="17"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>92</v>
-      </c>
+      <c r="B29" s="46"/>
       <c r="C29" s="51"/>
       <c r="E29" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="46" t="s">
-        <v>104</v>
-      </c>
+      <c r="B30" s="46"/>
       <c r="C30" s="51"/>
       <c r="E30" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>22</v>
-      </c>
+      <c r="B31" s="46"/>
       <c r="C31" s="51"/>
       <c r="E31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>127</v>
-      </c>
+      <c r="B32" s="46"/>
       <c r="C32" s="51"/>
       <c r="E32" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="46" t="s">
-        <v>264</v>
-      </c>
+      <c r="B33" s="46"/>
       <c r="C33" s="51"/>
       <c r="E33" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="46" t="s">
-        <v>186</v>
-      </c>
+      <c r="B34" s="46"/>
       <c r="C34" s="51"/>
       <c r="E34" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="46" t="s">
-        <v>230</v>
-      </c>
+      <c r="B35" s="46"/>
       <c r="C35" s="51"/>
       <c r="E35" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="46" t="s">
-        <v>171</v>
-      </c>
+      <c r="B36" s="46"/>
       <c r="C36" s="51"/>
       <c r="E36" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="46" t="s">
-        <v>63</v>
-      </c>
+      <c r="B37" s="46"/>
       <c r="C37" s="51"/>
       <c r="E37" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="5"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="46" t="s">
-        <v>252</v>
-      </c>
+      <c r="B38" s="46"/>
       <c r="C38" s="51"/>
       <c r="E38" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
-      <c r="B39" s="46" t="s">
-        <v>253</v>
-      </c>
+      <c r="B39" s="46"/>
       <c r="C39" s="51"/>
       <c r="E39" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="46" t="s">
-        <v>245</v>
-      </c>
+      <c r="B40" s="46"/>
       <c r="C40" s="51"/>
       <c r="E40" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="5"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
-      <c r="B41" s="46" t="s">
-        <v>249</v>
-      </c>
+      <c r="B41" s="46"/>
       <c r="C41" s="51"/>
       <c r="E41" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F41" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="5"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
-      <c r="B42" s="46" t="s">
-        <v>247</v>
-      </c>
+      <c r="B42" s="46"/>
       <c r="C42" s="51"/>
       <c r="E42" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="5"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="46" t="s">
-        <v>248</v>
-      </c>
+      <c r="B43" s="46"/>
       <c r="C43" s="50"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="5"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
       <c r="B44" s="48"/>
       <c r="C44" s="47"/>
       <c r="E44"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B45" s="42"/>
       <c r="C45" s="49"/>
       <c r="D45" s="30"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="32"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>35</v>
       </c>
@@ -3480,244 +3675,263 @@
       <c r="E46" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="27" t="s">
         <v>109</v>
       </c>
       <c r="G46" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="18"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>213</v>
-      </c>
+      <c r="B47" s="46"/>
       <c r="C47" s="51"/>
       <c r="E47" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>140</v>
-      </c>
+      <c r="B48" s="46"/>
       <c r="C48" s="51"/>
       <c r="E48" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>162</v>
-      </c>
+      <c r="B49" s="46"/>
       <c r="C49" s="51"/>
       <c r="E49" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>55</v>
-      </c>
+      <c r="B50" s="46"/>
       <c r="C50" s="51"/>
       <c r="E50" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>120</v>
-      </c>
+      <c r="B51" s="46"/>
       <c r="C51" s="51"/>
       <c r="E51" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="5"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>104</v>
-      </c>
+      <c r="B52" s="46"/>
       <c r="C52" s="51"/>
       <c r="E52" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="5"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
-      <c r="B53" s="46" t="s">
-        <v>22</v>
-      </c>
+      <c r="B53" s="46"/>
       <c r="C53" s="51"/>
       <c r="E53" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="5"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45"/>
-      <c r="B54" s="46" t="s">
-        <v>137</v>
-      </c>
+      <c r="B54" s="46"/>
       <c r="C54" s="51"/>
       <c r="E54" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
-      <c r="B55" s="46" t="s">
-        <v>226</v>
-      </c>
+      <c r="B55" s="46"/>
       <c r="C55" s="51"/>
       <c r="E55" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
-      <c r="B56" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="B56" s="46"/>
       <c r="C56" s="51"/>
       <c r="E56" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
-      <c r="B57" s="46" t="s">
-        <v>229</v>
-      </c>
+      <c r="B57" s="46"/>
       <c r="C57" s="51"/>
       <c r="E57" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
-      <c r="B58" s="46" t="s">
-        <v>246</v>
-      </c>
+      <c r="B58" s="46"/>
       <c r="C58" s="51"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="5" t="s">
+      <c r="E58" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
-      <c r="B59" s="46" t="s">
-        <v>243</v>
-      </c>
+      <c r="B59" s="46"/>
       <c r="C59" s="51"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="5" t="s">
+      <c r="E59" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" s="26"/>
+      <c r="G59" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
-      <c r="B60" s="46" t="s">
-        <v>244</v>
-      </c>
+      <c r="B60" s="46"/>
       <c r="C60" s="50"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="E61" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="45"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="E62" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C61" s="47"/>
-    </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3727,10 +3941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,394 +3953,424 @@
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
-    <col min="6" max="7" width="36.28515625" customWidth="1"/>
+    <col min="5" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="8" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="29"/>
       <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="35"/>
       <c r="D2" s="30"/>
       <c r="E2" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="72" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>214</v>
-      </c>
+      <c r="B4" s="70"/>
       <c r="C4" s="23"/>
       <c r="E4" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="23"/>
+      <c r="E5" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="26" t="s">
-        <v>161</v>
-      </c>
+      <c r="B6" s="70"/>
       <c r="C6" s="23"/>
       <c r="E6" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="26" t="s">
-        <v>165</v>
-      </c>
+      <c r="B7" s="70"/>
       <c r="C7" s="23"/>
       <c r="E7" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="26" t="s">
-        <v>254</v>
-      </c>
+      <c r="B8" s="70"/>
       <c r="C8" s="23"/>
       <c r="E8" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="26" t="s">
-        <v>175</v>
-      </c>
+      <c r="B9" s="70"/>
       <c r="C9" s="23"/>
       <c r="E9" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="26" t="s">
-        <v>228</v>
-      </c>
+      <c r="B10" s="70"/>
       <c r="C10" s="23"/>
       <c r="E10" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="26" t="s">
-        <v>257</v>
-      </c>
+      <c r="B11" s="70"/>
       <c r="C11" s="23"/>
       <c r="E11" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="26" t="s">
-        <v>232</v>
-      </c>
+      <c r="B12" s="70"/>
       <c r="C12" s="23"/>
       <c r="E12" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="70"/>
       <c r="C13" s="23"/>
       <c r="E13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14" s="70"/>
       <c r="C14" s="23"/>
       <c r="E14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="26" t="s">
-        <v>236</v>
-      </c>
+      <c r="B15" s="70"/>
       <c r="C15" s="23"/>
       <c r="E15" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="26" t="s">
-        <v>74</v>
-      </c>
+      <c r="B16" s="70"/>
       <c r="C16" s="23"/>
       <c r="E16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="26" t="s">
-        <v>130</v>
-      </c>
+      <c r="B17" s="70"/>
       <c r="C17" s="23"/>
       <c r="E17" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="26" t="s">
-        <v>237</v>
-      </c>
+      <c r="B18" s="70"/>
       <c r="C18" s="23"/>
       <c r="E18" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="26" t="s">
-        <v>85</v>
-      </c>
+      <c r="B19" s="70"/>
       <c r="C19" s="23"/>
       <c r="E19" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="26" t="s">
-        <v>240</v>
-      </c>
+      <c r="B20" s="70"/>
       <c r="C20" s="23"/>
       <c r="E20" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>241</v>
-      </c>
+      <c r="B21" s="71"/>
       <c r="C21" s="4"/>
       <c r="E21" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>256</v>
-      </c>
+      <c r="B22" s="71"/>
       <c r="C22" s="4"/>
       <c r="E22" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>258</v>
-      </c>
+      <c r="B23" s="71"/>
       <c r="C23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>263</v>
-      </c>
+      <c r="B24" s="71"/>
       <c r="C24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="26"/>
     </row>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="280">
   <si>
     <t>Bereich</t>
   </si>
@@ -834,9 +834,6 @@
     <t>Leopold Pühringer (EIceBAR)</t>
   </si>
   <si>
-    <t>Staudinger (FF Langenstein)</t>
-  </si>
-  <si>
     <t>Isabella Peterseil</t>
   </si>
   <si>
@@ -853,6 +850,18 @@
   </si>
   <si>
     <t>Christopher Gagstädter (Verantwortlicher)</t>
+  </si>
+  <si>
+    <t>Christoph Staudinger (FF Langenstein)</t>
+  </si>
+  <si>
+    <t>Karl Ebenhofer</t>
+  </si>
+  <si>
+    <t>Jaqueline Meisinger</t>
+  </si>
+  <si>
+    <t>Christine Ebenhofer</t>
   </si>
 </sst>
 </file>
@@ -1682,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="4" t="s">
@@ -1776,7 +1785,9 @@
       <c r="A4" s="47"/>
       <c r="B4" s="55"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="56"/>
+      <c r="D4" s="56" t="s">
+        <v>278</v>
+      </c>
       <c r="F4" s="38"/>
       <c r="G4" s="4" t="s">
         <v>19</v>
@@ -1901,7 +1912,7 @@
         <v>105</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="2" t="s">
@@ -2405,7 +2416,9 @@
       <c r="A35" s="47"/>
       <c r="B35" s="55"/>
       <c r="C35" s="50"/>
-      <c r="D35" s="57"/>
+      <c r="D35" s="57" t="s">
+        <v>54</v>
+      </c>
       <c r="E35" s="23"/>
       <c r="F35" s="38"/>
       <c r="G35" s="23" t="s">
@@ -2581,7 +2594,9 @@
       <c r="C44" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="54"/>
+      <c r="D44" s="54" t="s">
+        <v>26</v>
+      </c>
       <c r="F44" s="38"/>
       <c r="G44" s="2" t="s">
         <v>158</v>
@@ -2600,7 +2615,7 @@
       <c r="A45" s="47"/>
       <c r="B45" s="55"/>
       <c r="C45" s="50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="23"/>
@@ -2657,7 +2672,7 @@
       <c r="B48" s="58"/>
       <c r="C48" s="59"/>
       <c r="D48" s="61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="6" t="s">
@@ -2704,7 +2719,9 @@
       <c r="A50" s="47"/>
       <c r="B50" s="55"/>
       <c r="C50" s="50"/>
-      <c r="D50" s="57"/>
+      <c r="D50" s="57" t="s">
+        <v>277</v>
+      </c>
       <c r="E50" s="23"/>
       <c r="F50" s="38"/>
       <c r="G50" s="23" t="s">
@@ -2720,7 +2737,9 @@
       <c r="A51" s="47"/>
       <c r="B51" s="58"/>
       <c r="C51" s="59"/>
-      <c r="D51" s="61"/>
+      <c r="D51" s="61" t="s">
+        <v>279</v>
+      </c>
       <c r="F51" s="38"/>
       <c r="G51" s="6" t="s">
         <v>25</v>
@@ -2901,7 +2920,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="16"/>
@@ -2935,7 +2954,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>39</v>
@@ -3944,7 +3963,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3959,7 +3978,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4015,7 +4034,9 @@
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="70" t="s">
+        <v>234</v>
+      </c>
       <c r="C4" s="23"/>
       <c r="E4" s="26" t="s">
         <v>211</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="280">
   <si>
     <t>Bereich</t>
   </si>
@@ -1692,7 +1692,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1932,9 @@
       <c r="A11" s="47"/>
       <c r="B11" s="55"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="56"/>
+      <c r="D11" s="56" t="s">
+        <v>66</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>207</v>
       </c>
@@ -1950,7 +1952,9 @@
       <c r="A12" s="47"/>
       <c r="B12" s="55"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="56"/>
+      <c r="D12" s="56" t="s">
+        <v>203</v>
+      </c>
       <c r="F12" s="38"/>
       <c r="G12" s="4" t="s">
         <v>66</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="280">
   <si>
     <t>Bereich</t>
   </si>
@@ -1691,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,7 +2015,9 @@
       <c r="C15" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="54" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="38"/>
       <c r="G15" s="2" t="s">
         <v>15</v>
@@ -2037,7 +2039,9 @@
       <c r="A16" s="47"/>
       <c r="B16" s="55"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="57"/>
+      <c r="D16" s="57" t="s">
+        <v>97</v>
+      </c>
       <c r="E16" s="23"/>
       <c r="F16" s="38"/>
       <c r="G16" s="23" t="s">
@@ -2442,7 +2446,9 @@
       <c r="C36" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="57" t="s">
+        <v>230</v>
+      </c>
       <c r="E36" s="23"/>
       <c r="F36" s="38"/>
       <c r="G36" s="23" t="s">
@@ -2458,7 +2464,9 @@
       <c r="A37" s="47"/>
       <c r="B37" s="55"/>
       <c r="C37" s="50"/>
-      <c r="D37" s="57"/>
+      <c r="D37" s="57" t="s">
+        <v>231</v>
+      </c>
       <c r="E37" s="23"/>
       <c r="F37" s="38"/>
       <c r="G37" s="23" t="s">
@@ -2517,7 +2525,9 @@
       <c r="C40" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="54" t="s">
+        <v>28</v>
+      </c>
       <c r="F40" s="38"/>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -2820,7 +2830,9 @@
       <c r="C54" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="54"/>
+      <c r="D54" s="54" t="s">
+        <v>79</v>
+      </c>
       <c r="F54" s="38"/>
       <c r="G54" s="4" t="s">
         <v>79</v>
@@ -2908,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,7 +2995,9 @@
       <c r="A4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="46" t="s">
+        <v>79</v>
+      </c>
       <c r="C4" s="50"/>
       <c r="D4" s="35"/>
       <c r="E4" s="5" t="s">

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="280">
   <si>
     <t>Bereich</t>
   </si>
@@ -1691,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2546,9 @@
       <c r="A41" s="47"/>
       <c r="B41" s="55"/>
       <c r="C41" s="50"/>
-      <c r="D41" s="56"/>
+      <c r="D41" s="56" t="s">
+        <v>237</v>
+      </c>
       <c r="F41" s="38"/>
       <c r="G41" s="4" t="s">
         <v>189</v>
@@ -2565,7 +2567,9 @@
       <c r="A42" s="47"/>
       <c r="B42" s="55"/>
       <c r="C42" s="50"/>
-      <c r="D42" s="56"/>
+      <c r="D42" s="56" t="s">
+        <v>84</v>
+      </c>
       <c r="F42" s="38"/>
       <c r="G42" s="4" t="s">
         <v>237</v>
@@ -2921,7 +2925,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,7 +3416,9 @@
       <c r="A29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="46" t="s">
+        <v>127</v>
+      </c>
       <c r="C29" s="51"/>
       <c r="E29" s="26" t="s">
         <v>92</v>
@@ -3981,7 +3987,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,7 +4077,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="70"/>
+      <c r="B5" s="70" t="s">
+        <v>165</v>
+      </c>
       <c r="C5" s="23"/>
       <c r="E5" s="68" t="s">
         <v>174</v>
@@ -4088,7 +4096,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="70"/>
+      <c r="B6" s="70" t="s">
+        <v>251</v>
+      </c>
       <c r="C6" s="23"/>
       <c r="E6" s="26" t="s">
         <v>161</v>
@@ -4105,7 +4115,9 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="70"/>
+      <c r="B7" s="70" t="s">
+        <v>260</v>
+      </c>
       <c r="C7" s="23"/>
       <c r="E7" s="26" t="s">
         <v>165</v>
@@ -4122,7 +4134,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="70"/>
+      <c r="B8" s="70" t="s">
+        <v>84</v>
+      </c>
       <c r="C8" s="23"/>
       <c r="E8" s="26" t="s">
         <v>251</v>
@@ -4139,7 +4153,9 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="70"/>
+      <c r="B9" s="70" t="s">
+        <v>237</v>
+      </c>
       <c r="C9" s="23"/>
       <c r="E9" s="26" t="s">
         <v>175</v>
@@ -4156,7 +4172,9 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="70"/>
+      <c r="B10" s="70" t="s">
+        <v>238</v>
+      </c>
       <c r="C10" s="23"/>
       <c r="E10" s="26" t="s">
         <v>225</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="280">
   <si>
     <t>Bereich</t>
   </si>
@@ -1692,7 +1692,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,7 +2064,9 @@
       <c r="A17" s="47"/>
       <c r="B17" s="55"/>
       <c r="C17" s="50"/>
-      <c r="D17" s="57"/>
+      <c r="D17" s="57" t="s">
+        <v>166</v>
+      </c>
       <c r="E17" s="23"/>
       <c r="F17" s="38"/>
       <c r="G17" s="23" t="s">

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$B$1:$D$57</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="289">
   <si>
     <t>Bereich</t>
   </si>
@@ -684,9 +684,6 @@
     <t>Herbert Dalpiaz</t>
   </si>
   <si>
-    <t>Eiskaffee-/Sangriabar</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -862,6 +859,36 @@
   </si>
   <si>
     <t>Christine Ebenhofer</t>
+  </si>
+  <si>
+    <t>Friedrich Zeitlhofer (Anhänger)</t>
+  </si>
+  <si>
+    <t>Peter Hochreiter (Anhänger)</t>
+  </si>
+  <si>
+    <t>Wolfgang Buchner (Anhänger)</t>
+  </si>
+  <si>
+    <t>Leopold Pühringer (Anhänger)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Gagstädter </t>
+  </si>
+  <si>
+    <t>Manuel Aberl</t>
+  </si>
+  <si>
+    <t>Christopher Gagstädter (ab 10:00 Uhr)</t>
+  </si>
+  <si>
+    <t>Marlene Buchner / Martina Zeitlhofer</t>
+  </si>
+  <si>
+    <t>Hugo-/Sangriabar</t>
+  </si>
+  <si>
+    <t>Markus Peterseil (DJ/Kellner)</t>
   </si>
 </sst>
 </file>
@@ -1691,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1734,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1717,7 +1744,7 @@
       </c>
       <c r="E1" s="37"/>
       <c r="G1" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>199</v>
@@ -1765,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="4" t="s">
@@ -1786,7 +1813,7 @@
       <c r="B4" s="55"/>
       <c r="C4" s="50"/>
       <c r="D4" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="4" t="s">
@@ -1810,7 +1837,7 @@
       <c r="E5" s="23"/>
       <c r="F5" s="38"/>
       <c r="G5" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>120</v>
@@ -1824,7 +1851,9 @@
       <c r="A6" s="47"/>
       <c r="B6" s="55"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="57"/>
+      <c r="D6" s="57" t="s">
+        <v>288</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="38"/>
       <c r="G6" s="23" t="s">
@@ -1865,7 +1894,7 @@
       <c r="B8" s="55"/>
       <c r="C8" s="50"/>
       <c r="D8" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="4" t="s">
@@ -1912,7 +1941,7 @@
         <v>105</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="2" t="s">
@@ -1940,7 +1969,7 @@
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>153</v>
@@ -1967,7 +1996,9 @@
       <c r="A13" s="47"/>
       <c r="B13" s="55"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="57"/>
+      <c r="D13" s="57" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="23"/>
       <c r="F13" s="38"/>
       <c r="G13" s="23" t="s">
@@ -2089,7 +2120,9 @@
       <c r="A18" s="47"/>
       <c r="B18" s="55"/>
       <c r="C18" s="50"/>
-      <c r="D18" s="57"/>
+      <c r="D18" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="E18" s="23"/>
       <c r="F18" s="38"/>
       <c r="G18" s="23" t="s">
@@ -2184,12 +2217,12 @@
         <v>144</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="38"/>
       <c r="G22" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>73</v>
@@ -2233,7 +2266,9 @@
       <c r="A24" s="47"/>
       <c r="B24" s="55"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="57"/>
+      <c r="D24" s="57" t="s">
+        <v>167</v>
+      </c>
       <c r="E24" s="23"/>
       <c r="F24" s="38"/>
       <c r="G24" s="23" t="s">
@@ -2251,7 +2286,9 @@
       <c r="A25" s="47"/>
       <c r="B25" s="55"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="62"/>
+      <c r="D25" s="62" t="s">
+        <v>169</v>
+      </c>
       <c r="E25" s="23"/>
       <c r="F25" s="38"/>
       <c r="G25" s="23" t="s">
@@ -2268,7 +2305,7 @@
       <c r="D26" s="61"/>
       <c r="F26" s="38"/>
       <c r="G26" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>169</v>
@@ -2280,7 +2317,7 @@
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>4</v>
@@ -2355,12 +2392,14 @@
     <row r="31" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="52" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="63"/>
+      <c r="D31" s="63" t="s">
+        <v>136</v>
+      </c>
       <c r="F31" s="38"/>
       <c r="G31" s="4" t="s">
         <v>191</v>
@@ -2373,7 +2412,9 @@
       <c r="A32" s="47"/>
       <c r="B32" s="55"/>
       <c r="C32" s="50"/>
-      <c r="D32" s="56"/>
+      <c r="D32" s="56" t="s">
+        <v>179</v>
+      </c>
       <c r="F32" s="38"/>
       <c r="G32" s="4" t="s">
         <v>136</v>
@@ -2386,7 +2427,9 @@
       <c r="A33" s="47"/>
       <c r="B33" s="58"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="64"/>
+      <c r="D33" s="64" t="s">
+        <v>286</v>
+      </c>
       <c r="F33" s="38"/>
       <c r="G33" s="4" t="s">
         <v>179</v>
@@ -2446,10 +2489,10 @@
       <c r="A36" s="47"/>
       <c r="B36" s="55"/>
       <c r="C36" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="38"/>
@@ -2467,12 +2510,12 @@
       <c r="B37" s="55"/>
       <c r="C37" s="50"/>
       <c r="D37" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="38"/>
       <c r="G37" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H37" s="23" t="s">
         <v>187</v>
@@ -2490,7 +2533,7 @@
       <c r="E38" s="23"/>
       <c r="F38" s="38"/>
       <c r="G38" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H38" s="23" t="s">
         <v>188</v>
@@ -2507,10 +2550,10 @@
       <c r="D39" s="61"/>
       <c r="F39" s="38"/>
       <c r="G39" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
@@ -2549,7 +2592,7 @@
       <c r="B41" s="55"/>
       <c r="C41" s="50"/>
       <c r="D41" s="56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="4" t="s">
@@ -2574,7 +2617,7 @@
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>173</v>
@@ -2594,7 +2637,7 @@
       <c r="E43" s="23"/>
       <c r="F43" s="38"/>
       <c r="G43" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H43" s="23" t="s">
         <v>189</v>
@@ -2635,7 +2678,7 @@
       <c r="A45" s="47"/>
       <c r="B45" s="55"/>
       <c r="C45" s="50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="23"/>
@@ -2692,7 +2735,7 @@
       <c r="B48" s="58"/>
       <c r="C48" s="59"/>
       <c r="D48" s="61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="6" t="s">
@@ -2740,7 +2783,7 @@
       <c r="B50" s="55"/>
       <c r="C50" s="50"/>
       <c r="D50" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="38"/>
@@ -2758,7 +2801,7 @@
       <c r="B51" s="58"/>
       <c r="C51" s="59"/>
       <c r="D51" s="61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="6" t="s">
@@ -2860,7 +2903,7 @@
       <c r="D55" s="61"/>
       <c r="F55" s="38"/>
       <c r="G55" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>31</v>
@@ -2870,7 +2913,7 @@
     </row>
     <row r="56" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B56" s="65" t="s">
         <v>106</v>
@@ -2926,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,7 +2985,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="16"/>
@@ -2952,13 +2995,13 @@
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="49"/>
       <c r="D2" s="30"/>
       <c r="E2" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>199</v>
@@ -2976,7 +3019,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>39</v>
@@ -3024,7 +3067,9 @@
       <c r="A5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="46" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="50"/>
       <c r="D5" s="35"/>
       <c r="E5" s="5" t="s">
@@ -3045,7 +3090,9 @@
       <c r="A6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="46" t="s">
+        <v>255</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="35"/>
       <c r="E6" s="5" t="s">
@@ -3064,7 +3111,9 @@
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
+      <c r="B7" s="46" t="s">
+        <v>92</v>
+      </c>
       <c r="C7" s="50"/>
       <c r="D7" s="35"/>
       <c r="E7" s="5" t="s">
@@ -3083,11 +3132,13 @@
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="46" t="s">
+        <v>160</v>
+      </c>
       <c r="C8" s="51"/>
       <c r="D8" s="35"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>196</v>
@@ -3108,7 +3159,7 @@
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="49"/>
@@ -3148,7 +3199,9 @@
       <c r="A12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="51"/>
       <c r="E12" s="26" t="s">
         <v>212</v>
@@ -3168,7 +3221,9 @@
       <c r="A13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="46" t="s">
+        <v>104</v>
+      </c>
       <c r="C13" s="51"/>
       <c r="E13" s="26" t="s">
         <v>213</v>
@@ -3188,7 +3243,9 @@
       <c r="A14" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="46" t="s">
+        <v>283</v>
+      </c>
       <c r="C14" s="51"/>
       <c r="E14" s="26" t="s">
         <v>162</v>
@@ -3205,11 +3262,15 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>284</v>
+      </c>
       <c r="C15" s="51"/>
       <c r="E15" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>162</v>
@@ -3224,10 +3285,12 @@
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="B16" s="46" t="s">
+        <v>224</v>
+      </c>
       <c r="C16" s="51"/>
       <c r="E16" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>16</v>
@@ -3242,7 +3305,9 @@
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="B17" s="46" t="s">
+        <v>92</v>
+      </c>
       <c r="C17" s="51"/>
       <c r="E17" s="26" t="s">
         <v>153</v>
@@ -3260,7 +3325,9 @@
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="51"/>
       <c r="E18" s="26" t="s">
         <v>23</v>
@@ -3276,7 +3343,9 @@
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="46" t="s">
+        <v>225</v>
+      </c>
       <c r="C19" s="51"/>
       <c r="E19" s="26" t="s">
         <v>159</v>
@@ -3292,10 +3361,12 @@
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="46" t="s">
+        <v>97</v>
+      </c>
       <c r="C20" s="51"/>
       <c r="E20" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>23</v>
@@ -3347,7 +3418,7 @@
       <c r="B24" s="46"/>
       <c r="C24" s="51"/>
       <c r="E24" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="5"/>
@@ -3359,7 +3430,7 @@
       <c r="B25" s="46"/>
       <c r="C25" s="51"/>
       <c r="E25" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="5" t="s">
@@ -3378,7 +3449,7 @@
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="49"/>
@@ -3396,7 +3467,7 @@
         <v>154</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="27" t="s">
@@ -3440,7 +3511,9 @@
       <c r="A30" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="46" t="s">
+        <v>104</v>
+      </c>
       <c r="C30" s="51"/>
       <c r="E30" s="26" t="s">
         <v>104</v>
@@ -3460,7 +3533,9 @@
       <c r="A31" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="C31" s="51"/>
       <c r="E31" s="26" t="s">
         <v>22</v>
@@ -3503,7 +3578,7 @@
       <c r="B33" s="46"/>
       <c r="C33" s="51"/>
       <c r="E33" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>174</v>
@@ -3538,12 +3613,12 @@
     </row>
     <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="B35" s="46"/>
       <c r="C35" s="51"/>
       <c r="E35" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>183</v>
@@ -3557,9 +3632,6 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
-        <v>99</v>
-      </c>
       <c r="B36" s="46"/>
       <c r="C36" s="51"/>
       <c r="E36" s="26" t="s">
@@ -3597,7 +3669,7 @@
       <c r="B38" s="46"/>
       <c r="C38" s="51"/>
       <c r="E38" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>185</v>
@@ -3613,7 +3685,7 @@
       <c r="B39" s="46"/>
       <c r="C39" s="51"/>
       <c r="E39" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>190</v>
@@ -3631,7 +3703,7 @@
       <c r="B40" s="46"/>
       <c r="C40" s="51"/>
       <c r="E40" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>74</v>
@@ -3647,7 +3719,7 @@
       <c r="B41" s="46"/>
       <c r="C41" s="51"/>
       <c r="E41" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>127</v>
@@ -3663,7 +3735,7 @@
       <c r="B42" s="46"/>
       <c r="C42" s="51"/>
       <c r="E42" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>94</v>
@@ -3679,7 +3751,7 @@
       <c r="B43" s="46"/>
       <c r="C43" s="50"/>
       <c r="E43" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -3696,7 +3768,7 @@
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" s="42"/>
       <c r="C45" s="49"/>
@@ -3736,7 +3808,9 @@
       <c r="A47" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="46"/>
+      <c r="B47" s="46" t="s">
+        <v>33</v>
+      </c>
       <c r="C47" s="51"/>
       <c r="E47" s="26" t="s">
         <v>210</v>
@@ -3756,7 +3830,9 @@
       <c r="A48" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="46"/>
+      <c r="B48" s="46" t="s">
+        <v>123</v>
+      </c>
       <c r="C48" s="51"/>
       <c r="E48" s="26" t="s">
         <v>140</v>
@@ -3776,7 +3852,9 @@
       <c r="A49" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="46"/>
+      <c r="B49" s="46" t="s">
+        <v>92</v>
+      </c>
       <c r="C49" s="51"/>
       <c r="E49" s="26" t="s">
         <v>162</v>
@@ -3796,7 +3874,9 @@
       <c r="A50" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="46"/>
+      <c r="B50" s="46" t="s">
+        <v>30</v>
+      </c>
       <c r="C50" s="51"/>
       <c r="E50" s="26" t="s">
         <v>55</v>
@@ -3885,7 +3965,7 @@
       <c r="B55" s="46"/>
       <c r="C55" s="51"/>
       <c r="E55" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F55" s="26" t="s">
         <v>104</v>
@@ -3915,7 +3995,7 @@
       <c r="B57" s="46"/>
       <c r="C57" s="51"/>
       <c r="E57" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>120</v>
@@ -3930,7 +4010,7 @@
       <c r="B58" s="46"/>
       <c r="C58" s="51"/>
       <c r="E58" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="5" t="s">
@@ -3943,7 +4023,7 @@
       <c r="B59" s="46"/>
       <c r="C59" s="51"/>
       <c r="E59" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="5" t="s">
@@ -3956,7 +4036,7 @@
       <c r="B60" s="46"/>
       <c r="C60" s="50"/>
       <c r="E60" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -3967,7 +4047,7 @@
       <c r="B61" s="46"/>
       <c r="C61" s="47"/>
       <c r="E61" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3975,7 +4055,7 @@
       <c r="B62" s="46"/>
       <c r="C62" s="47"/>
       <c r="E62" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3988,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,7 +4084,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4014,13 +4094,13 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="35"/>
       <c r="D2" s="30"/>
       <c r="E2" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>199</v>
@@ -4040,7 +4120,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="27" t="s">
@@ -4061,7 +4141,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="23"/>
       <c r="E4" s="26" t="s">
@@ -4099,7 +4179,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="23"/>
       <c r="E6" s="26" t="s">
@@ -4118,7 +4198,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="23"/>
       <c r="E7" s="26" t="s">
@@ -4141,7 +4221,7 @@
       </c>
       <c r="C8" s="23"/>
       <c r="E8" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>165</v>
@@ -4156,7 +4236,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="23"/>
       <c r="E9" s="26" t="s">
@@ -4175,11 +4255,11 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="23"/>
       <c r="E10" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>130</v>
@@ -4193,10 +4273,12 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="70"/>
+      <c r="B11" s="70" t="s">
+        <v>279</v>
+      </c>
       <c r="C11" s="23"/>
       <c r="E11" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>131</v>
@@ -4210,10 +4292,12 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="70"/>
+      <c r="B12" s="70" t="s">
+        <v>130</v>
+      </c>
       <c r="C12" s="23"/>
       <c r="E12" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>170</v>
@@ -4227,7 +4311,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="70"/>
+      <c r="B13" s="70" t="s">
+        <v>280</v>
+      </c>
       <c r="C13" s="23"/>
       <c r="E13" s="26" t="s">
         <v>15</v>
@@ -4244,7 +4330,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="70"/>
+      <c r="B14" s="70" t="s">
+        <v>281</v>
+      </c>
       <c r="C14" s="23"/>
       <c r="E14" s="26" t="s">
         <v>33</v>
@@ -4261,10 +4349,12 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="70"/>
+      <c r="B15" s="70" t="s">
+        <v>282</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="E15" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>85</v>
@@ -4278,7 +4368,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="70"/>
+      <c r="B16" s="70" t="s">
+        <v>285</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="E16" s="26" t="s">
         <v>74</v>
@@ -4295,7 +4387,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="70"/>
+      <c r="B17" s="70" t="s">
+        <v>161</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="E17" s="26" t="s">
         <v>130</v>
@@ -4310,10 +4404,12 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="70"/>
+      <c r="B18" s="70" t="s">
+        <v>254</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="E18" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>15</v>
@@ -4343,7 +4439,7 @@
       <c r="B20" s="70"/>
       <c r="C20" s="23"/>
       <c r="E20" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>179</v>
@@ -4358,7 +4454,7 @@
       <c r="B21" s="71"/>
       <c r="C21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>192</v>
@@ -4371,7 +4467,7 @@
       <c r="B22" s="71"/>
       <c r="C22" s="4"/>
       <c r="E22" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>206</v>
@@ -4384,7 +4480,7 @@
       <c r="B23" s="71"/>
       <c r="C23" s="4"/>
       <c r="E23" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -4395,7 +4491,7 @@
       <c r="B24" s="71"/>
       <c r="C24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -1716,10 +1716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2961,7 +2964,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToWidth="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4068,7 +4071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="291">
   <si>
     <t>Bereich</t>
   </si>
@@ -889,6 +889,12 @@
   </si>
   <si>
     <t>Markus Peterseil (DJ/Kellner)</t>
+  </si>
+  <si>
+    <t>Roswitta Weißengruber</t>
+  </si>
+  <si>
+    <t>Manuel Schwaiger</t>
   </si>
 </sst>
 </file>
@@ -1721,8 +1727,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1842,9 @@
       <c r="A5" s="47"/>
       <c r="B5" s="55"/>
       <c r="C5" s="50"/>
-      <c r="D5" s="57"/>
+      <c r="D5" s="57" t="s">
+        <v>81</v>
+      </c>
       <c r="E5" s="23"/>
       <c r="F5" s="38"/>
       <c r="G5" s="23" t="s">
@@ -2532,7 +2540,9 @@
       <c r="A38" s="47"/>
       <c r="B38" s="55"/>
       <c r="C38" s="50"/>
-      <c r="D38" s="57"/>
+      <c r="D38" s="57" t="s">
+        <v>289</v>
+      </c>
       <c r="E38" s="23"/>
       <c r="F38" s="38"/>
       <c r="G38" s="23" t="s">
@@ -2550,7 +2560,9 @@
       <c r="A39" s="47"/>
       <c r="B39" s="58"/>
       <c r="C39" s="59"/>
-      <c r="D39" s="61"/>
+      <c r="D39" s="61" t="s">
+        <v>224</v>
+      </c>
       <c r="F39" s="38"/>
       <c r="G39" s="6" t="s">
         <v>224</v>
@@ -2683,7 +2695,9 @@
       <c r="C45" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="D45" s="57"/>
+      <c r="D45" s="57" t="s">
+        <v>158</v>
+      </c>
       <c r="E45" s="23"/>
       <c r="F45" s="38"/>
       <c r="G45" s="23" t="s">
@@ -2973,7 +2987,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3558,7 +3572,9 @@
       <c r="A32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="C32" s="51"/>
       <c r="E32" s="26" t="s">
         <v>127</v>
@@ -3578,7 +3594,9 @@
       <c r="A33" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="46" t="s">
+        <v>290</v>
+      </c>
       <c r="C33" s="51"/>
       <c r="E33" s="26" t="s">
         <v>260</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="293">
   <si>
     <t>Bereich</t>
   </si>
@@ -895,6 +895,12 @@
   </si>
   <si>
     <t>Manuel Schwaiger</t>
+  </si>
+  <si>
+    <t>Maximilian Ehlers (EIceBAR)</t>
+  </si>
+  <si>
+    <t>1-2x</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1733,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,7 +1931,9 @@
       <c r="A9" s="47"/>
       <c r="B9" s="58"/>
       <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="D9" s="60" t="s">
+        <v>291</v>
+      </c>
       <c r="E9" s="23"/>
       <c r="F9" s="38"/>
       <c r="G9" s="23" t="s">
@@ -2156,7 +2164,9 @@
       <c r="A19" s="47"/>
       <c r="B19" s="55"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="57"/>
+      <c r="D19" s="57" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="23"/>
       <c r="F19" s="38"/>
       <c r="G19" s="23" t="s">
@@ -2648,7 +2658,9 @@
       <c r="A43" s="47"/>
       <c r="B43" s="58"/>
       <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
+      <c r="D43" s="60" t="s">
+        <v>189</v>
+      </c>
       <c r="E43" s="23"/>
       <c r="F43" s="38"/>
       <c r="G43" s="23" t="s">
@@ -2871,7 +2883,9 @@
       <c r="C53" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="67"/>
+      <c r="D53" s="67" t="s">
+        <v>125</v>
+      </c>
       <c r="F53" s="38"/>
       <c r="G53" s="9" t="s">
         <v>125</v>
@@ -2894,7 +2908,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>5</v>
+        <v>292</v>
       </c>
       <c r="D54" s="54" t="s">
         <v>79</v>
@@ -2986,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="293">
   <si>
     <t>Bereich</t>
   </si>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,7 +3410,9 @@
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+      <c r="B21" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="C21" s="51"/>
       <c r="E21" s="26" t="s">
         <v>104</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="294">
   <si>
     <t>Bereich</t>
   </si>
@@ -901,6 +901,9 @@
   </si>
   <si>
     <t>1-2x</t>
+  </si>
+  <si>
+    <t>Lukas Scherer ab 22:00</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1737,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,7 +2040,9 @@
       <c r="A14" s="47"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="61"/>
+      <c r="D14" s="61" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="38"/>
       <c r="G14" s="6" t="s">
         <v>152</v>
@@ -2931,7 +2936,9 @@
       <c r="A55" s="47"/>
       <c r="B55" s="58"/>
       <c r="C55" s="59"/>
-      <c r="D55" s="61"/>
+      <c r="D55" s="61" t="s">
+        <v>293</v>
+      </c>
       <c r="F55" s="38"/>
       <c r="G55" s="6" t="s">
         <v>231</v>
@@ -3001,7 +3008,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3933,7 +3940,9 @@
       <c r="A51" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="46"/>
+      <c r="B51" s="46" t="s">
+        <v>221</v>
+      </c>
       <c r="C51" s="51"/>
       <c r="E51" s="26" t="s">
         <v>120</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="295">
   <si>
     <t>Bereich</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>Lukas Scherer ab 22:00</t>
+  </si>
+  <si>
+    <t>Anna Lichtl</t>
   </si>
 </sst>
 </file>
@@ -3007,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,7 +3963,9 @@
       <c r="A52" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="46"/>
+      <c r="B52" s="46" t="s">
+        <v>174</v>
+      </c>
       <c r="C52" s="51"/>
       <c r="E52" s="26" t="s">
         <v>104</v>
@@ -3976,7 +3981,9 @@
     </row>
     <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
+      <c r="B53" s="46" t="s">
+        <v>140</v>
+      </c>
       <c r="C53" s="51"/>
       <c r="E53" s="26" t="s">
         <v>22</v>
@@ -4114,8 +4121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4467,7 +4474,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="70"/>
+      <c r="B19" s="70" t="s">
+        <v>294</v>
+      </c>
       <c r="C19" s="23"/>
       <c r="E19" s="26" t="s">
         <v>85</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="298">
   <si>
     <t>Bereich</t>
   </si>
@@ -907,6 +907,15 @@
   </si>
   <si>
     <t>Anna Lichtl</t>
+  </si>
+  <si>
+    <t>Julian Raml</t>
+  </si>
+  <si>
+    <t>Rudolf Huber (unsicher; FR oder SA)</t>
+  </si>
+  <si>
+    <t>Sabrina Track (Deko)</t>
   </si>
 </sst>
 </file>
@@ -1739,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,7 +3651,9 @@
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="46" t="s">
+        <v>296</v>
+      </c>
       <c r="C34" s="51"/>
       <c r="E34" s="26" t="s">
         <v>186</v>
@@ -3747,7 +3758,9 @@
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
+      <c r="B40" s="46" t="s">
+        <v>239</v>
+      </c>
       <c r="C40" s="51"/>
       <c r="E40" s="26" t="s">
         <v>241</v>
@@ -3763,7 +3776,9 @@
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
+      <c r="B41" s="46" t="s">
+        <v>297</v>
+      </c>
       <c r="C41" s="51"/>
       <c r="E41" s="26" t="s">
         <v>245</v>
@@ -3779,7 +3794,9 @@
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
+      <c r="B42" s="46" t="s">
+        <v>241</v>
+      </c>
       <c r="C42" s="51"/>
       <c r="E42" s="26" t="s">
         <v>243</v>
@@ -3795,7 +3812,9 @@
     </row>
     <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
+      <c r="B43" s="46" t="s">
+        <v>238</v>
+      </c>
       <c r="C43" s="50"/>
       <c r="E43" s="5" t="s">
         <v>244</v>
@@ -3999,7 +4018,9 @@
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45"/>
-      <c r="B54" s="46"/>
+      <c r="B54" s="46" t="s">
+        <v>295</v>
+      </c>
       <c r="C54" s="51"/>
       <c r="E54" s="26" t="s">
         <v>137</v>
@@ -4015,7 +4036,9 @@
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
+      <c r="B55" s="46" t="s">
+        <v>296</v>
+      </c>
       <c r="C55" s="51"/>
       <c r="E55" s="26" t="s">
         <v>222</v>
@@ -4030,7 +4053,7 @@
     </row>
     <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="51"/>
       <c r="E56" s="26" t="s">
         <v>76</v>
@@ -4045,7 +4068,7 @@
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
-      <c r="B57" s="46"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="51"/>
       <c r="E57" s="26" t="s">
         <v>225</v>
@@ -4060,7 +4083,7 @@
     </row>
     <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
-      <c r="B58" s="46"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="51"/>
       <c r="E58" s="26" t="s">
         <v>242</v>
@@ -4073,7 +4096,9 @@
     </row>
     <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
-      <c r="B59" s="46"/>
+      <c r="B59" s="46" t="s">
+        <v>239</v>
+      </c>
       <c r="C59" s="51"/>
       <c r="E59" s="26" t="s">
         <v>239</v>
@@ -4086,7 +4111,9 @@
     </row>
     <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
-      <c r="B60" s="46"/>
+      <c r="B60" s="46" t="s">
+        <v>297</v>
+      </c>
       <c r="C60" s="50"/>
       <c r="E60" s="5" t="s">
         <v>240</v>
@@ -4097,7 +4124,9 @@
     </row>
     <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="46" t="s">
+        <v>241</v>
+      </c>
       <c r="C61" s="47"/>
       <c r="E61" s="4" t="s">
         <v>238</v>
@@ -4105,7 +4134,9 @@
     </row>
     <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
-      <c r="B62" s="46"/>
+      <c r="B62" s="46" t="s">
+        <v>238</v>
+      </c>
       <c r="C62" s="47"/>
       <c r="E62" s="4" t="s">
         <v>241</v>
@@ -4121,7 +4152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="299">
   <si>
     <t>Bereich</t>
   </si>
@@ -916,6 +916,9 @@
   </si>
   <si>
     <t>Sabrina Track (Deko)</t>
+  </si>
+  <si>
+    <t>Leonhard Peterseil (Gläser)</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1752,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2343,9 @@
       <c r="A26" s="47"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="61"/>
+      <c r="D26" s="61" t="s">
+        <v>298</v>
+      </c>
       <c r="F26" s="38"/>
       <c r="G26" s="6" t="s">
         <v>227</v>
@@ -3019,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3167,7 @@
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="35"/>
@@ -3182,9 +3187,7 @@
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="46" t="s">
-        <v>160</v>
-      </c>
+      <c r="B8" s="46"/>
       <c r="C8" s="51"/>
       <c r="D8" s="35"/>
       <c r="E8" s="26" t="s">
@@ -3673,7 +3676,9 @@
       <c r="A35" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="46" t="s">
+        <v>28</v>
+      </c>
       <c r="C35" s="51"/>
       <c r="E35" s="26" t="s">
         <v>226</v>
@@ -3690,7 +3695,9 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46"/>
+      <c r="B36" s="46" t="s">
+        <v>225</v>
+      </c>
       <c r="C36" s="51"/>
       <c r="E36" s="26" t="s">
         <v>171</v>
@@ -3708,7 +3715,9 @@
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="46"/>
+      <c r="B37" s="46" t="s">
+        <v>226</v>
+      </c>
       <c r="C37" s="51"/>
       <c r="E37" s="26" t="s">
         <v>63</v>
@@ -4053,7 +4062,9 @@
     </row>
     <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
-      <c r="B56" s="26"/>
+      <c r="B56" s="46" t="s">
+        <v>28</v>
+      </c>
       <c r="C56" s="51"/>
       <c r="E56" s="26" t="s">
         <v>76</v>
@@ -4068,7 +4079,9 @@
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
-      <c r="B57" s="26"/>
+      <c r="B57" s="46" t="s">
+        <v>225</v>
+      </c>
       <c r="C57" s="51"/>
       <c r="E57" s="26" t="s">
         <v>225</v>
@@ -4083,7 +4096,9 @@
     </row>
     <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
-      <c r="B58" s="26"/>
+      <c r="B58" s="46" t="s">
+        <v>226</v>
+      </c>
       <c r="C58" s="51"/>
       <c r="E58" s="26" t="s">
         <v>242</v>
@@ -4153,7 +4168,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$B$1:$D$57</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="301">
   <si>
     <t>Bereich</t>
   </si>
@@ -919,6 +919,12 @@
   </si>
   <si>
     <t>Leonhard Peterseil (Gläser)</t>
+  </si>
+  <si>
+    <t>Markus Brandstetter</t>
+  </si>
+  <si>
+    <t>Michael Kolberger</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1021,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1362,11 +1368,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1442,6 +1461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1751,8 +1771,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,7 +2229,9 @@
       <c r="A20" s="47"/>
       <c r="B20" s="55"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="57"/>
+      <c r="D20" s="57" t="s">
+        <v>299</v>
+      </c>
       <c r="E20" s="23"/>
       <c r="F20" s="38"/>
       <c r="G20" s="23" t="s">
@@ -3001,7 +3023,9 @@
       <c r="C57" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="67"/>
+      <c r="D57" s="67" t="s">
+        <v>215</v>
+      </c>
       <c r="F57" s="38"/>
       <c r="G57" s="6" t="s">
         <v>215</v>
@@ -3022,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,9 +4134,9 @@
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="46" t="s">
-        <v>239</v>
+      <c r="A59" s="73"/>
+      <c r="B59" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="C59" s="51"/>
       <c r="E59" s="26" t="s">
@@ -4127,7 +4151,7 @@
     <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="C60" s="50"/>
       <c r="E60" s="5" t="s">
@@ -4140,7 +4164,7 @@
     <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="C61" s="47"/>
       <c r="E61" s="4" t="s">
@@ -4150,11 +4174,17 @@
     <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="46" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C62" s="47"/>
       <c r="E62" s="4" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="45"/>
+      <c r="B63" s="46" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4168,7 +4198,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4537,7 +4567,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="70"/>
+      <c r="B20" s="70" t="s">
+        <v>175</v>
+      </c>
       <c r="C20" s="23"/>
       <c r="E20" s="26" t="s">
         <v>236</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="303">
   <si>
     <t>Bereich</t>
   </si>
@@ -925,6 +925,12 @@
   </si>
   <si>
     <t>Michael Kolberger</t>
+  </si>
+  <si>
+    <t>Markus Manninger bis 22:00</t>
+  </si>
+  <si>
+    <t>Josef Mayrhofer (unsicher)</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1778,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,7 +2779,9 @@
       <c r="A46" s="47"/>
       <c r="B46" s="55"/>
       <c r="C46" s="50"/>
-      <c r="D46" s="56"/>
+      <c r="D46" s="56" t="s">
+        <v>301</v>
+      </c>
       <c r="F46" s="38"/>
       <c r="G46" s="4" t="s">
         <v>27</v>
@@ -3049,7 +3057,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3757,7 +3765,9 @@
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
+      <c r="B38" s="46" t="s">
+        <v>302</v>
+      </c>
       <c r="C38" s="51"/>
       <c r="E38" s="26" t="s">
         <v>248</v>
@@ -4198,7 +4208,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4584,7 +4594,9 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="71"/>
+      <c r="B21" s="71" t="s">
+        <v>302</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="E21" s="5" t="s">
         <v>237</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="305">
   <si>
     <t>Bereich</t>
   </si>
@@ -931,6 +931,12 @@
   </si>
   <si>
     <t>Josef Mayrhofer (unsicher)</t>
+  </si>
+  <si>
+    <t>Stefan Luger</t>
+  </si>
+  <si>
+    <t>Claudia Luger</t>
   </si>
 </sst>
 </file>
@@ -3056,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,8 +4213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4609,7 +4615,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="71"/>
+      <c r="B22" s="71" t="s">
+        <v>303</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="E22" s="5" t="s">
         <v>252</v>
@@ -4622,7 +4630,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="71" t="s">
+        <v>304</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="E23" s="5" t="s">
         <v>254</v>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="305">
   <si>
     <t>Bereich</t>
   </si>
@@ -943,7 +943,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,6 +1024,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1397,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1474,6 +1482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3062,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3192,7 @@
       <c r="A6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="74" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="50"/>
@@ -3204,7 +3213,7 @@
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="74" t="s">
         <v>160</v>
       </c>
       <c r="C7" s="50"/>
@@ -3225,7 +3234,9 @@
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="46" t="s">
+        <v>224</v>
+      </c>
       <c r="C8" s="51"/>
       <c r="D8" s="35"/>
       <c r="E8" s="26" t="s">
@@ -4151,7 +4162,7 @@
     </row>
     <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="46" t="s">
         <v>300</v>
       </c>
       <c r="C59" s="51"/>
@@ -4214,7 +4225,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="306">
   <si>
     <t>Bereich</t>
   </si>
@@ -937,6 +937,9 @@
   </si>
   <si>
     <t>Claudia Luger</t>
+  </si>
+  <si>
+    <t>Alexander Hamiga</t>
   </si>
 </sst>
 </file>
@@ -3071,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3957,7 +3960,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="C48" s="51"/>
       <c r="E48" s="26" t="s">
@@ -4224,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
+++ b/trunk/2015/Personal/Personal-Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="309">
   <si>
     <t>Bereich</t>
   </si>
@@ -940,13 +940,22 @@
   </si>
   <si>
     <t>Alexander Hamiga</t>
+  </si>
+  <si>
+    <t>Josef Luger bis 22:00</t>
+  </si>
+  <si>
+    <t>Leopold Rammer (Anhänger) ?</t>
+  </si>
+  <si>
+    <t>Florian Derntl ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,6 +1044,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1408,7 +1424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1436,7 +1452,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -1450,8 +1465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1486,6 +1499,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1795,8 +1810,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1819,7 @@
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="44" customWidth="1"/>
     <col min="5" max="6" width="8.140625" style="4" customWidth="1"/>
     <col min="7" max="10" width="29" customWidth="1"/>
   </cols>
@@ -1816,10 +1831,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="72">
         <v>42196</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="36"/>
       <c r="G1" s="24" t="s">
         <v>267</v>
       </c>
@@ -1834,19 +1849,19 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="2" t="s">
         <v>120</v>
       </c>
@@ -1861,17 +1876,17 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="4" t="s">
         <v>69</v>
       </c>
@@ -1886,13 +1901,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="56" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1907,14 +1922,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="57" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="54" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="23" t="s">
         <v>221</v>
       </c>
@@ -1927,14 +1942,14 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="57" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="54" t="s">
         <v>288</v>
       </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="23" t="s">
         <v>208</v>
       </c>
@@ -1947,14 +1962,14 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="57" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="54" t="s">
         <v>209</v>
       </c>
       <c r="E7" s="23"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="23" t="s">
         <v>209</v>
       </c>
@@ -1969,13 +1984,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="56" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="4" t="s">
         <v>103</v>
       </c>
@@ -1990,14 +2005,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
         <v>291</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="23" t="s">
         <v>202</v>
       </c>
@@ -2012,19 +2027,19 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="2" t="s">
         <v>153</v>
       </c>
@@ -2039,16 +2054,16 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="56" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="53" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="4" t="s">
         <v>223</v>
       </c>
@@ -2059,13 +2074,13 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="56" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="4" t="s">
         <v>66</v>
       </c>
@@ -2074,14 +2089,14 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="57" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="54" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="23" t="s">
         <v>203</v>
       </c>
@@ -2096,13 +2111,13 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="61" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="6" t="s">
         <v>152</v>
       </c>
@@ -2120,19 +2135,19 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2150,14 +2165,14 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="57" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="23" t="s">
         <v>200</v>
       </c>
@@ -2175,14 +2190,14 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="57" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="54" t="s">
         <v>166</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="23" t="s">
         <v>205</v>
       </c>
@@ -2200,14 +2215,14 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="57" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="54" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="23" t="s">
         <v>216</v>
       </c>
@@ -2225,14 +2240,14 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="57" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="54" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="23" t="s">
         <v>166</v>
       </c>
@@ -2250,14 +2265,14 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="57" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="54" t="s">
         <v>299</v>
       </c>
       <c r="E20" s="23"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="23" t="s">
         <v>55</v>
       </c>
@@ -2275,12 +2290,12 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="23" t="s">
         <v>162</v>
       </c>
@@ -2298,16 +2313,16 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="50" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="54" t="s">
         <v>251</v>
       </c>
       <c r="E22" s="23"/>
-      <c r="F22" s="38"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="23" t="s">
         <v>251</v>
       </c>
@@ -2325,14 +2340,14 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="57" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="54" t="s">
         <v>168</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="23" t="s">
         <v>217</v>
       </c>
@@ -2350,14 +2365,14 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="57" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="54" t="s">
         <v>167</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="23" t="s">
         <v>167</v>
       </c>
@@ -2370,14 +2385,14 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="62" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="59" t="s">
         <v>169</v>
       </c>
       <c r="E25" s="23"/>
-      <c r="F25" s="38"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="23" t="s">
         <v>168</v>
       </c>
@@ -2386,13 +2401,13 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="61" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="F26" s="38"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="6" t="s">
         <v>227</v>
       </c>
@@ -2405,19 +2420,19 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="38"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="2" t="s">
         <v>104</v>
       </c>
@@ -2432,39 +2447,39 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="56" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="38"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="69" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="38"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="61" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="38"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="6" t="s">
         <v>22</v>
       </c>
@@ -2479,68 +2494,68 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="38"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="4" t="s">
         <v>191</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="56" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="F32" s="38"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="4" t="s">
         <v>136</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="64" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="4" t="s">
         <v>179</v>
       </c>
       <c r="H33" s="4"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2555,14 +2570,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="57" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="54" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="23"/>
-      <c r="F35" s="38"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="23" t="s">
         <v>81</v>
       </c>
@@ -2575,16 +2590,16 @@
       <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="50" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="54" t="s">
         <v>229</v>
       </c>
       <c r="E36" s="23"/>
-      <c r="F36" s="38"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="23" t="s">
         <v>54</v>
       </c>
@@ -2595,14 +2610,14 @@
       <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="57" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="54" t="s">
         <v>230</v>
       </c>
       <c r="E37" s="23"/>
-      <c r="F37" s="38"/>
+      <c r="F37" s="37"/>
       <c r="G37" s="23" t="s">
         <v>229</v>
       </c>
@@ -2615,14 +2630,14 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="57" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="54" t="s">
         <v>289</v>
       </c>
       <c r="E38" s="23"/>
-      <c r="F38" s="38"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="23" t="s">
         <v>230</v>
       </c>
@@ -2635,13 +2650,13 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="61" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="38"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="6" t="s">
         <v>224</v>
       </c>
@@ -2654,19 +2669,19 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="38"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="2" t="s">
         <v>28</v>
       </c>
@@ -2681,13 +2696,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="56" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="F41" s="38"/>
+      <c r="F41" s="37"/>
       <c r="G41" s="4" t="s">
         <v>189</v>
       </c>
@@ -2702,13 +2717,13 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="56" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="38"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="4" t="s">
         <v>236</v>
       </c>
@@ -2723,14 +2738,14 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60" t="s">
+      <c r="A43" s="44"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="57" t="s">
         <v>189</v>
       </c>
       <c r="E43" s="23"/>
-      <c r="F43" s="38"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="23" t="s">
         <v>256</v>
       </c>
@@ -2743,19 +2758,19 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="38"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="2" t="s">
         <v>158</v>
       </c>
@@ -2770,16 +2785,16 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="50" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="54" t="s">
         <v>158</v>
       </c>
       <c r="E45" s="23"/>
-      <c r="F45" s="38"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="23" t="s">
         <v>214</v>
       </c>
@@ -2794,13 +2809,13 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="56" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="F46" s="38"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="4" t="s">
         <v>27</v>
       </c>
@@ -2811,11 +2826,13 @@
       <c r="J46" s="21"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="56"/>
-      <c r="F47" s="38"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="F47" s="37"/>
       <c r="G47" s="4" t="s">
         <v>26</v>
       </c>
@@ -2830,13 +2847,13 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="61" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="38"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="6" t="s">
         <v>157</v>
       </c>
@@ -2851,19 +2868,19 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="D49" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="38"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="2" t="s">
         <v>63</v>
       </c>
@@ -2878,31 +2895,31 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="57" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="54" t="s">
         <v>276</v>
       </c>
       <c r="E50" s="23"/>
-      <c r="F50" s="38"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="23" t="s">
         <v>24</v>
       </c>
       <c r="H50" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="61" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="F51" s="38"/>
+      <c r="F51" s="37"/>
       <c r="G51" s="6" t="s">
         <v>25</v>
       </c>
@@ -2917,19 +2934,19 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="67" t="s">
+      <c r="D52" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="38"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="6" t="s">
         <v>218</v>
       </c>
@@ -2944,19 +2961,19 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="67" t="s">
+      <c r="D53" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F53" s="38"/>
+      <c r="F53" s="37"/>
       <c r="G53" s="9" t="s">
         <v>125</v>
       </c>
@@ -2971,19 +2988,19 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="38"/>
+      <c r="F54" s="37"/>
       <c r="G54" s="4" t="s">
         <v>79</v>
       </c>
@@ -2998,13 +3015,13 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="47"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="61" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="F55" s="38"/>
+      <c r="F55" s="37"/>
       <c r="G55" s="6" t="s">
         <v>231</v>
       </c>
@@ -3015,19 +3032,19 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="67" t="s">
+      <c r="D56" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="38"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="6" t="s">
         <v>92</v>
       </c>
@@ -3040,19 +3057,19 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="38"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="6" t="s">
         <v>215</v>
       </c>
@@ -3074,14 +3091,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="45" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="4" customWidth="1"/>
     <col min="5" max="6" width="43.7109375" style="4" customWidth="1"/>
@@ -3092,26 +3109,26 @@
       <c r="A1" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="8" t="s">
         <v>267</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>197</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -3120,16 +3137,16 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="12" t="s">
         <v>107</v>
       </c>
@@ -3146,14 +3163,14 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
@@ -3169,14 +3186,14 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="35"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="5" t="s">
         <v>79</v>
       </c>
@@ -3192,14 +3209,14 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="5" t="s">
         <v>159</v>
       </c>
@@ -3215,12 +3232,12 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
@@ -3236,16 +3253,16 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="26" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>196</v>
       </c>
       <c r="G8" s="5"/>
@@ -3255,40 +3272,39 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="47"/>
+      <c r="A9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>109</v>
       </c>
       <c r="G11" s="12" t="s">
@@ -3301,17 +3317,17 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="E12" s="26" t="s">
+      <c r="C12" s="48"/>
+      <c r="E12" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>159</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -3323,17 +3339,17 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="E13" s="26" t="s">
+      <c r="C13" s="48"/>
+      <c r="E13" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -3345,17 +3361,17 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="48"/>
+      <c r="E14" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>160</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -3367,17 +3383,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="48"/>
+      <c r="E15" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>162</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -3389,15 +3405,15 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="E16" s="26" t="s">
+      <c r="C16" s="48"/>
+      <c r="E16" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -3409,15 +3425,15 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="E17" s="26" t="s">
+      <c r="C17" s="48"/>
+      <c r="E17" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>153</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -3429,15 +3445,15 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="E18" s="26" t="s">
+      <c r="C18" s="48"/>
+      <c r="E18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -3447,15 +3463,15 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="E19" s="26" t="s">
+      <c r="C19" s="48"/>
+      <c r="E19" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -3465,15 +3481,15 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="E20" s="26" t="s">
+      <c r="C20" s="48"/>
+      <c r="E20" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -3483,63 +3499,63 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="E21" s="26" t="s">
+      <c r="C21" s="48"/>
+      <c r="E21" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="51"/>
-      <c r="E22" s="26" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="48"/>
+      <c r="E22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="51"/>
-      <c r="E23" s="26" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="48"/>
+      <c r="E23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="51"/>
-      <c r="E24" s="26" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="48"/>
+      <c r="E24" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="51"/>
-      <c r="E25" s="26" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="48"/>
+      <c r="E25" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="5" t="s">
         <v>55</v>
       </c>
@@ -3547,40 +3563,39 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="44"/>
+      <c r="C26" s="44"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="27" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="26" t="s">
         <v>154</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -3593,17 +3608,17 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="E29" s="26" t="s">
+      <c r="C29" s="48"/>
+      <c r="E29" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>30</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -3615,17 +3630,17 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="E30" s="26" t="s">
+      <c r="C30" s="48"/>
+      <c r="E30" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>92</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -3637,17 +3652,17 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="E31" s="26" t="s">
+      <c r="C31" s="48"/>
+      <c r="E31" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="25" t="s">
         <v>163</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -3659,17 +3674,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="E32" s="26" t="s">
+      <c r="C32" s="48"/>
+      <c r="E32" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="25" t="s">
         <v>164</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -3681,17 +3696,17 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="E33" s="26" t="s">
+      <c r="C33" s="48"/>
+      <c r="E33" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="25" t="s">
         <v>174</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -3703,17 +3718,17 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="E34" s="26" t="s">
+      <c r="C34" s="48"/>
+      <c r="E34" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="25" t="s">
         <v>193</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -3725,17 +3740,17 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="E35" s="26" t="s">
+      <c r="C35" s="48"/>
+      <c r="E35" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="25" t="s">
         <v>183</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -3747,14 +3762,14 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="E36" s="26" t="s">
+      <c r="C36" s="48"/>
+      <c r="E36" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="25" t="s">
         <v>184</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -3766,15 +3781,15 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="E37" s="26" t="s">
+      <c r="C37" s="48"/>
+      <c r="E37" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="25" t="s">
         <v>80</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -3784,15 +3799,15 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="E38" s="26" t="s">
+      <c r="C38" s="48"/>
+      <c r="E38" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
         <v>185</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -3802,13 +3817,15 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="51"/>
-      <c r="E39" s="26" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="48"/>
+      <c r="E39" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="25" t="s">
         <v>190</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -3820,15 +3837,15 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="E40" s="26" t="s">
+      <c r="C40" s="48"/>
+      <c r="E40" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -3838,15 +3855,15 @@
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="E41" s="26" t="s">
+      <c r="C41" s="48"/>
+      <c r="E41" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="25" t="s">
         <v>127</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -3856,15 +3873,15 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="E42" s="26" t="s">
+      <c r="C42" s="48"/>
+      <c r="E42" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="25" t="s">
         <v>94</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -3874,11 +3891,11 @@
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="50"/>
+      <c r="C43" s="47"/>
       <c r="E43" s="5" t="s">
         <v>244</v>
       </c>
@@ -3888,40 +3905,39 @@
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="47"/>
+      <c r="A44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="27" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="26" t="s">
         <v>109</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -3934,17 +3950,17 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="E47" s="26" t="s">
+      <c r="C47" s="48"/>
+      <c r="E47" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="25" t="s">
         <v>92</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -3956,17 +3972,17 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="E48" s="26" t="s">
+      <c r="C48" s="48"/>
+      <c r="E48" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="25" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -3978,17 +3994,17 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="E49" s="26" t="s">
+      <c r="C49" s="48"/>
+      <c r="E49" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="25" t="s">
         <v>162</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -4000,17 +4016,17 @@
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="E50" s="26" t="s">
+      <c r="C50" s="48"/>
+      <c r="E50" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="25" t="s">
         <v>123</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -4022,17 +4038,17 @@
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="E51" s="26" t="s">
+      <c r="C51" s="48"/>
+      <c r="E51" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="25" t="s">
         <v>30</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -4042,17 +4058,17 @@
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="E52" s="26" t="s">
+      <c r="C52" s="48"/>
+      <c r="E52" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="25" t="s">
         <v>186</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -4062,15 +4078,15 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="E53" s="26" t="s">
+      <c r="C53" s="48"/>
+      <c r="E53" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -4080,15 +4096,15 @@
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="E54" s="26" t="s">
+      <c r="C54" s="48"/>
+      <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="25" t="s">
         <v>137</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -4098,15 +4114,15 @@
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="E55" s="26" t="s">
+      <c r="C55" s="48"/>
+      <c r="E55" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="25" t="s">
         <v>104</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -4115,15 +4131,15 @@
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="46" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="E56" s="26" t="s">
+      <c r="C56" s="48"/>
+      <c r="E56" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -4132,15 +4148,15 @@
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="46" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="E57" s="26" t="s">
+      <c r="C57" s="48"/>
+      <c r="E57" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="25" t="s">
         <v>120</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -4149,41 +4165,41 @@
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="46" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="E58" s="26" t="s">
+      <c r="C58" s="48"/>
+      <c r="E58" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F58" s="26"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="5" t="s">
         <v>82</v>
       </c>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="46" t="s">
+      <c r="A59" s="70"/>
+      <c r="B59" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="E59" s="26" t="s">
+      <c r="C59" s="48"/>
+      <c r="E59" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F59" s="26"/>
+      <c r="F59" s="25"/>
       <c r="G59" s="5" t="s">
         <v>148</v>
       </c>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C60" s="50"/>
+      <c r="C60" s="47"/>
       <c r="E60" s="5" t="s">
         <v>240</v>
       </c>
@@ -4192,28 +4208,28 @@
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="C61" s="47"/>
+      <c r="C61" s="44"/>
       <c r="E61" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="46" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="44"/>
       <c r="E62" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46" t="s">
+      <c r="A63" s="42"/>
+      <c r="B63" s="43" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4228,7 +4244,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,7 +4263,7 @@
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="29"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
@@ -4255,13 +4271,13 @@
       <c r="A2" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="34" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>199</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -4275,17 +4291,17 @@
       <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>155</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -4299,14 +4315,14 @@
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="67" t="s">
         <v>233</v>
       </c>
       <c r="C4" s="23"/>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>153</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -4318,14 +4334,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="67" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>161</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -4337,14 +4353,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="67" t="s">
         <v>250</v>
       </c>
       <c r="C6" s="23"/>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -4356,14 +4372,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="67" t="s">
         <v>259</v>
       </c>
       <c r="C7" s="23"/>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>125</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -4375,14 +4391,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="67" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>165</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -4394,14 +4410,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="67" t="s">
         <v>236</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>194</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -4413,14 +4429,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="67" t="s">
         <v>237</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -4432,14 +4448,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="67" t="s">
         <v>279</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>131</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -4451,14 +4467,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="67" t="s">
         <v>130</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>170</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -4470,14 +4486,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="67" t="s">
         <v>280</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>171</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -4489,14 +4505,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="67" t="s">
         <v>281</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>172</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -4508,14 +4524,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="67" t="s">
         <v>282</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>85</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -4527,14 +4543,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="67" t="s">
         <v>285</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>84</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -4546,14 +4562,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="67" t="s">
         <v>161</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>175</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -4563,14 +4579,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="67" t="s">
         <v>254</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -4580,14 +4596,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="67" t="s">
         <v>294</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -4597,14 +4613,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="67" t="s">
         <v>175</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>179</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -4614,7 +4630,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="68" t="s">
         <v>302</v>
       </c>
       <c r="C21" s="4"/>
@@ -4629,7 +4645,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="68" t="s">
         <v>303</v>
       </c>
       <c r="C22" s="4"/>
@@ -4644,7 +4660,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="68" t="s">
         <v>304</v>
       </c>
       <c r="C23" s="4"/>
@@ -4657,7 +4673,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="71"/>
+      <c r="B24" s="68" t="s">
+        <v>307</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="E24" s="5" t="s">
         <v>259</v>
@@ -4668,7 +4686,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="71"/>
+      <c r="B25" s="68" t="s">
+        <v>308</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="E25" s="5" t="s">
         <v>23</v>
@@ -4679,7 +4699,9 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="70"/>
+      <c r="B26" s="67" t="s">
+        <v>248</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -4696,7 +4718,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="26"/>
+      <c r="B29" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
